--- a/data/trans_dic/P55$familiar-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiar-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,22; 27,41</t>
+          <t>12,68; 27,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,38; 33,35</t>
+          <t>17,79; 33,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,5; 40,67</t>
+          <t>22,72; 39,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,87; 66,8</t>
+          <t>51,09; 66,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,01; 35,29</t>
+          <t>22,04; 34,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,93; 39,52</t>
+          <t>27,39; 39,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,28; 38,0</t>
+          <t>24,49; 38,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,61; 66,54</t>
+          <t>57,57; 66,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,14; 30,3</t>
+          <t>20,21; 29,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,47; 35,36</t>
+          <t>25,63; 35,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,21; 36,26</t>
+          <t>25,06; 36,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,58; 65,01</t>
+          <t>57,46; 64,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 40,98</t>
+          <t>5,29; 44,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,79</t>
+          <t>0,0; 30,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,27; 41,28</t>
+          <t>7,53; 39,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,4; 54,55</t>
+          <t>31,27; 55,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,33</t>
+          <t>0,0; 35,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 47,95</t>
+          <t>7,18; 49,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,76; 32,95</t>
+          <t>7,71; 32,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,92; 57,75</t>
+          <t>37,99; 58,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 31,1</t>
+          <t>3,2; 30,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 31,57</t>
+          <t>6,53; 31,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 30,71</t>
+          <t>11,03; 31,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,51; 53,75</t>
+          <t>38,79; 53,0</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,2</t>
+          <t>0,0; 68,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,12</t>
+          <t>0,0; 68,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 47,47</t>
+          <t>10,99; 44,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,73; 51,95</t>
+          <t>13,4; 49,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,35</t>
+          <t>0,0; 38,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,17</t>
+          <t>0,0; 64,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,43</t>
+          <t>0,0; 59,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,07; 42,3</t>
+          <t>16,5; 42,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 27,91</t>
+          <t>12,96; 26,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,22; 31,13</t>
+          <t>16,57; 30,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,9; 36,87</t>
+          <t>21,51; 37,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,91; 57,61</t>
+          <t>45,51; 57,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,9; 31,89</t>
+          <t>19,56; 31,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,87; 37,52</t>
+          <t>26,12; 37,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,32; 34,57</t>
+          <t>21,88; 34,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,64; 62,2</t>
+          <t>54,83; 62,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,27; 28,5</t>
+          <t>19,01; 27,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,37; 33,7</t>
+          <t>24,57; 33,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,35; 33,03</t>
+          <t>24,15; 33,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,73; 59,47</t>
+          <t>52,81; 59,53</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar no conviviente cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20023</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30979</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>29284</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>57673</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>57939</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>82462</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>64202</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>160118</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>77962</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>113441</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>93486</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>217791</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13064; 28581</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22081; 41825</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21233; 37111</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>49890; 65217</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>45367; 71544</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>68712; 98730</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>51075; 79692</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>148352; 170692</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>62411; 92563</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>96119; 131549</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>75686; 111330</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>204157; 230020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2604</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18606</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4771</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9299</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26572</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3720</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6763</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14347</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>45178</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>750; 6290</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6160</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1723; 9106</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13453; 23909</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4809</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1519; 10558</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4011; 16967</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20765; 31938</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>886; 8427</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2686; 12807</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8266; 23573</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>37887; 51774</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3814</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4176</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2312</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7989</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6413</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3489</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1662; 6741</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1815</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1603</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5451</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1875; 6867</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8125</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4167</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7057</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4802; 12291</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>24378</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33956</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>35382</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>80093</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>59055</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>87233</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>74763</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>190866</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>83433</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>121189</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>110145</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>270958</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16410; 33428</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24227; 45248</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26123; 45209</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>70896; 89815</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>45180; 73115</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>72212; 103305</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>58493; 92435</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>178916; 203703</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>67956; 99972</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>103809; 142298</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>93890; 130956</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>254624; 287018</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>